--- a/backend/recipes/Recipe.xlsx
+++ b/backend/recipes/Recipe.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D915AB5-7D87-4E0A-91B7-31B74B035268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F48979C8-6B4F-47EC-95F7-6FD14839EBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="smoothie" sheetId="1" r:id="rId1"/>
+    <sheet name="juice" sheetId="3" r:id="rId2"/>
+    <sheet name="food" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$999</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">smoothie!$A$1:$AG$999</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -477,15 +479,39 @@
     <t>Juices</t>
   </si>
   <si>
-    <t>Fruit 1</t>
-  </si>
-  <si>
-    <t>Fruit 2</t>
+    <t>Fruit1_id</t>
+  </si>
+  <si>
+    <t>qt</t>
+  </si>
+  <si>
+    <t>Fruit2_id</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Fruit3_id</t>
   </si>
   <si>
     <t>Fruit 3</t>
   </si>
   <si>
+    <t>Fruit4_id</t>
+  </si>
+  <si>
+    <t>Fruit4</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Fruit5_id</t>
+  </si>
+  <si>
+    <t>Fruit5</t>
+  </si>
+  <si>
     <t>Hail to the Kale</t>
   </si>
   <si>
@@ -528,10 +554,49 @@
     <t>Food</t>
   </si>
   <si>
+    <t>bread_ID</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>Qt</t>
   </si>
   <si>
-    <t>g</t>
+    <t>ingridient2_id</t>
+  </si>
+  <si>
+    <t>ingridient2</t>
+  </si>
+  <si>
+    <t>ingridient3_id</t>
+  </si>
+  <si>
+    <t>ingridient3</t>
+  </si>
+  <si>
+    <t>ingridient4_id</t>
+  </si>
+  <si>
+    <t>ingridient4</t>
+  </si>
+  <si>
+    <t>ingridient5_id</t>
+  </si>
+  <si>
+    <t>ingridient5</t>
+  </si>
+  <si>
+    <t>ingridient6_id</t>
+  </si>
+  <si>
+    <t>ingridient6</t>
+  </si>
+  <si>
+    <t>ingridient7_id</t>
+  </si>
+  <si>
+    <t>ingridient7</t>
   </si>
   <si>
     <t>Hummus &amp; Veggie Wrap</t>
@@ -553,9 +618,6 @@
   </si>
   <si>
     <t>Hummus</t>
-  </si>
-  <si>
-    <t>Lemon Juice</t>
   </si>
   <si>
     <t>Chipotle Chicken Wrap</t>
@@ -886,13 +948,14 @@
   <dimension ref="A1:AG93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF6" sqref="AF6"/>
+      <pane xSplit="2" topLeftCell="C18" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4552,941 +4615,1055 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
-      <c r="B73" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="2">
-        <v>72</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="3">
-        <v>23</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="3">
-        <v>240</v>
-      </c>
-      <c r="F74" s="3">
-        <v>28</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I74" s="3">
-        <v>26</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K74" s="3">
-        <v>30</v>
-      </c>
-      <c r="L74" s="3">
-        <v>31</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N74" s="3">
-        <v>60</v>
-      </c>
-      <c r="O74" s="3">
-        <v>27</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="3">
-        <v>23</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="3">
-        <v>300</v>
-      </c>
-      <c r="F75" s="3">
-        <v>28</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>26</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K75" s="3">
-        <v>30</v>
-      </c>
-      <c r="L75" s="3">
-        <v>4</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N75" s="3">
-        <v>90</v>
-      </c>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="1:28">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="3">
-        <v>23</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="3">
-        <v>240</v>
-      </c>
-      <c r="F76" s="3">
-        <v>28</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>26</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K76" s="3">
-        <v>20</v>
-      </c>
-      <c r="L76" s="3">
-        <v>25</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N76" s="3">
-        <v>150</v>
-      </c>
-      <c r="O76" s="3">
-        <v>9</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="2">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="3">
-        <v>23</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="3">
-        <v>480</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-    </row>
-    <row r="78" spans="1:28">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="3">
-        <v>25</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="3">
-        <v>480</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-    </row>
-    <row r="79" spans="1:28">
-      <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="3">
-        <v>23</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="3">
-        <v>150</v>
-      </c>
-      <c r="F79" s="3">
-        <v>26</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" s="3">
-        <v>30</v>
-      </c>
-      <c r="I79" s="3">
-        <v>25</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K79" s="3">
-        <v>295</v>
-      </c>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-    </row>
-    <row r="80" spans="1:28">
-      <c r="A80" s="2">
-        <v>78</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="3">
-        <v>25</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E80" s="3">
-        <v>350</v>
-      </c>
-      <c r="F80" s="3">
-        <v>34</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H80" s="3">
-        <v>100</v>
-      </c>
-      <c r="I80" s="3">
-        <v>33</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K80" s="3">
-        <v>80</v>
-      </c>
-      <c r="L80" s="3">
-        <v>30</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N80" s="3">
-        <v>10</v>
-      </c>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:25">
-      <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="3">
-        <v>14</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="3">
-        <v>150</v>
-      </c>
-      <c r="F81" s="3">
-        <v>32</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K81" s="3">
-        <v>103</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:25">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="3">
-        <v>32</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="3">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
-      <c r="A83" s="2">
-        <v>81</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="3">
-        <v>23</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="3">
-        <v>150</v>
-      </c>
-      <c r="F83" s="3">
-        <v>24</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" s="3">
-        <v>60</v>
-      </c>
-      <c r="I83" s="3">
-        <v>25</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K83" s="3">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="3">
-        <v>23</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84" s="3">
-        <v>150</v>
-      </c>
-      <c r="F84" s="3">
-        <v>32</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H84" s="3">
-        <v>150</v>
-      </c>
-      <c r="I84" s="3">
-        <v>6</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K84" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25">
-      <c r="B86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="W86" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
-      <c r="A87" s="3">
-        <v>83</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="3">
-        <v>57</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" s="3">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>56</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H87" s="3">
-        <v>27</v>
-      </c>
-      <c r="I87" s="3">
-        <v>33</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K87" s="3">
-        <v>14</v>
-      </c>
-      <c r="L87" s="3">
-        <v>54</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N87" s="3">
-        <v>20</v>
-      </c>
-      <c r="O87" s="3">
-        <v>53</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>5</v>
-      </c>
-      <c r="R87" s="3">
-        <v>25</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T87" s="3">
-        <v>10</v>
-      </c>
-      <c r="U87" s="3">
-        <v>63</v>
-      </c>
-      <c r="V87" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="W87" s="3">
-        <v>28</v>
-      </c>
-      <c r="X87" s="3">
-        <v>28</v>
-      </c>
-      <c r="Y87" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25">
-      <c r="A88" s="3">
-        <v>84</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="3">
-        <v>57</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>51</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H88" s="3">
-        <v>90</v>
-      </c>
-      <c r="I88" s="3">
-        <v>54</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K88" s="3">
-        <v>10</v>
-      </c>
-      <c r="L88" s="3">
-        <v>53</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N88" s="3">
-        <v>5</v>
-      </c>
-      <c r="O88" s="3">
-        <v>50</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>10</v>
-      </c>
-      <c r="R88" s="3">
-        <v>65</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="T88" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
-      <c r="A89" s="3">
-        <v>85</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="3">
-        <v>61</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F89" s="3">
-        <v>55</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H89" s="3">
-        <v>44.75</v>
-      </c>
-      <c r="I89" s="3">
-        <v>51</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K89" s="3">
-        <v>63.75</v>
-      </c>
-      <c r="L89" s="3">
-        <v>54</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N89" s="3">
-        <v>10</v>
-      </c>
-      <c r="O89" s="3">
-        <v>53</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
-        <v>50</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T89" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
-      <c r="A90" s="3">
-        <v>86</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="3">
-        <v>61</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F90" s="3">
-        <v>65</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H90" s="3">
-        <v>51</v>
-      </c>
-      <c r="I90" s="3">
-        <v>51</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K90" s="3">
-        <v>63.75</v>
-      </c>
-      <c r="L90" s="3">
-        <v>54</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N90" s="3">
-        <v>10</v>
-      </c>
-      <c r="O90" s="3">
-        <v>53</v>
-      </c>
-      <c r="P90" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>5</v>
-      </c>
-      <c r="R90" s="3">
-        <v>50</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T90" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
-      <c r="A91" s="3">
-        <v>87</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="3">
-        <v>57</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" s="3">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>51</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H91" s="3">
-        <v>90</v>
-      </c>
-      <c r="I91" s="3">
-        <v>53</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K91" s="3">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>64</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N91" s="3">
-        <v>20</v>
-      </c>
-      <c r="O91" s="3">
-        <v>54</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>10</v>
-      </c>
-      <c r="R91" s="3">
-        <v>50</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T91" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
-      <c r="A92" s="3">
-        <v>88</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="3">
-        <v>57</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>62</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" s="3">
-        <v>56</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K92" s="3">
-        <v>27</v>
-      </c>
-      <c r="L92" s="3">
-        <v>33</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N92" s="3">
-        <v>14</v>
-      </c>
-      <c r="O92" s="3">
-        <v>63</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>28</v>
-      </c>
-      <c r="R92" s="3">
-        <v>50</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T92" s="3">
-        <v>20</v>
-      </c>
-      <c r="X92" s="3">
-        <v>28</v>
-      </c>
-      <c r="Y92" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
-      <c r="A93" s="3">
-        <v>89</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="3">
-        <v>57</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>60</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H93" s="3">
-        <v>113.3</v>
-      </c>
-      <c r="I93" s="3">
-        <v>52</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K93" s="3">
-        <v>15.6</v>
-      </c>
-      <c r="L93" s="3">
-        <v>33</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N93" s="3">
-        <v>14</v>
-      </c>
-      <c r="O93" s="3">
-        <v>34</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R93" s="3">
-        <v>50</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T93" s="3">
-        <v>20</v>
-      </c>
-      <c r="X93" s="3">
-        <v>28</v>
-      </c>
-      <c r="Y93" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
+    <row r="73" spans="1:28" ht="12.75"/>
+    <row r="74" spans="1:28" ht="12.75"/>
+    <row r="75" spans="1:28" ht="12.75"/>
+    <row r="76" spans="1:28" ht="12.75"/>
+    <row r="77" spans="1:28" ht="12.75"/>
+    <row r="78" spans="1:28" ht="12.75"/>
+    <row r="79" spans="1:28" ht="12.75"/>
+    <row r="80" spans="1:28" ht="12.75"/>
+    <row r="81" ht="12.75"/>
+    <row r="82" ht="12.75"/>
+    <row r="83" ht="12.75"/>
+    <row r="84" ht="12.75"/>
+    <row r="86"/>
+    <row r="87" ht="12.75"/>
+    <row r="88" ht="12.75"/>
+    <row r="89" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
+    <row r="92" ht="12.75"/>
+    <row r="93" ht="12.75"/>
   </sheetData>
   <autoFilter ref="A1:AG999" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FEBF51-C133-4D5E-812A-4707C65541AF}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15">
+      <c r="A2" s="2">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3">
+        <v>240</v>
+      </c>
+      <c r="F2" s="3">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="3">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="3">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3">
+        <v>300</v>
+      </c>
+      <c r="F3" s="3">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="3">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="3">
+        <v>90</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3">
+        <v>240</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="3">
+        <v>150</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15">
+      <c r="A5" s="2">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>480</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="3">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3">
+        <v>480</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3">
+        <v>150</v>
+      </c>
+      <c r="F7" s="3">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="3">
+        <v>295</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="15">
+      <c r="A8" s="2">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3">
+        <v>350</v>
+      </c>
+      <c r="F8" s="3">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="3">
+        <v>80</v>
+      </c>
+      <c r="L8" s="3">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3">
+        <v>150</v>
+      </c>
+      <c r="F9" s="3">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3">
+        <v>103</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15">
+      <c r="A11" s="2">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="3">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3">
+        <v>150</v>
+      </c>
+      <c r="F11" s="3">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3">
+        <v>150</v>
+      </c>
+      <c r="F12" s="3">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3">
+        <v>150</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="3">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36265BC9-7D9C-4CAA-8464-827816F624A0}">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="3">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="3">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="3">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="3">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3">
+        <v>54</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="3">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3">
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3">
+        <v>25</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" s="3">
+        <v>10</v>
+      </c>
+      <c r="U2" s="3">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W2" s="3">
+        <v>28</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="3">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="3">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="3">
+        <v>90</v>
+      </c>
+      <c r="I3" s="3">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>53</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>50</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3">
+        <v>65</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="3">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44.75</v>
+      </c>
+      <c r="I4" s="3">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="3">
+        <v>63.75</v>
+      </c>
+      <c r="L4" s="3">
+        <v>54</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <v>53</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>50</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="3">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="3">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="3">
+        <v>51</v>
+      </c>
+      <c r="I5" s="3">
+        <v>51</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="3">
+        <v>63.75</v>
+      </c>
+      <c r="L5" s="3">
+        <v>54</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>53</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="3">
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="3">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>64</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" s="3">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3">
+        <v>54</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10</v>
+      </c>
+      <c r="R6" s="3">
+        <v>50</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="3">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="3">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>62</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="3">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3">
+        <v>33</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" s="3">
+        <v>14</v>
+      </c>
+      <c r="O7" s="3">
+        <v>63</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>28</v>
+      </c>
+      <c r="R7" s="3">
+        <v>50</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T7" s="3">
+        <v>20</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="3">
+        <v>89</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="3">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>33</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="3">
+        <v>14</v>
+      </c>
+      <c r="O8" s="3">
+        <v>34</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="3">
+        <v>50</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T8" s="3">
+        <v>20</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>